--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f10RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f10RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\Angle\f10RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16CF0A5-BA67-4D7E-9E02-0CC5DE6E8DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEFC554-5C99-4F60-AE21-4B684A9C9EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{B1D96069-72F6-416D-94BB-B433C6EF9A4F}"/>
+    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{13B4F70A-203D-4B63-89A7-4ABC2760BE02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2E5C95-B4C4-4ECD-9308-F56FE59EDCD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D26C22-1C27-448C-AC87-05991C689069}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f10RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f10RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\Angle\f10RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEFC554-5C99-4F60-AE21-4B684A9C9EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49E7210-A600-4305-AB0A-F44E0E5D6CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{13B4F70A-203D-4B63-89A7-4ABC2760BE02}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{BD12C179-D563-41E7-8B1C-173D0909CB41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D26C22-1C27-448C-AC87-05991C689069}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA57394-DA4C-4103-BD11-DC720BEC47A4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>20.618038258594101</v>
+        <v>5.6420022078804841</v>
       </c>
     </row>
   </sheetData>
